--- a/TrackmanData/TestCenterAndCombineReportResults.xlsx
+++ b/TrackmanData/TestCenterAndCombineReportResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rehn/IdeaProjects/GCQuadCombineTest/TrackmanData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4A81B-96BF-B047-9ABD-618006CC6A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310901D5-A14B-4B4A-9C14-81F41D135878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="64000" windowHeight="25080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="25080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Pin absolute penalty point" sheetId="5" r:id="rId1"/>
@@ -27647,9 +27647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC5614-BCA1-4843-A31B-9FFACE729F12}">
   <dimension ref="A1:BS151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ20" sqref="AZ20"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -48258,7 +48258,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:Q3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/TrackmanData/TestCenterAndCombineReportResults.xlsx
+++ b/TrackmanData/TestCenterAndCombineReportResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rehn/IdeaProjects/GCQuadCombineTest/TrackmanData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B0975-9C7D-EA43-8DB9-22B2F5A44ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F140E08D-AC86-1E4D-B01A-AD025ACC67AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="25080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,38 @@
     <sheet name="14_TestCenterReport 65m" sheetId="19" r:id="rId16"/>
     <sheet name="15_TestCenterReport 65m" sheetId="20" r:id="rId17"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'From Pin absolute penalty point'!$R$3:$R$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'From Pin absolute penalty point'!$S$3:$S$20</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'From Pin absolute penalty point'!$S$3:$S$20</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'From Pin absolute penalty point'!$T$3:$T$20</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'From Pin absolute penalty point'!$R$3:$R$20</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'From Pin absolute penalty point'!$S$3:$S$20</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'From Pin absolute penalty point'!$T$3:$T$20</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'From Pin absolute penalty point'!$R$3:$R$20</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'From Pin absolute penalty point'!$S$3:$S$20</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'From Pin absolute penalty point'!$T$3:$T$20</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'From Pin absolute penalty point'!$T$3:$T$20</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'From Pin absolute penalty point'!$R$3:$R$20</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'From Pin absolute penalty point'!$S$3:$S$20</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'From Pin absolute penalty point'!$T$3:$T$20</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'From Pin absolute penalty point'!$R$3:$R$20</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'From Pin absolute penalty point'!$S$3:$S$20</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'From Pin absolute penalty point'!$T$3:$T$20</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'From Pin absolute penalty point'!$R$3:$R$20</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'From Pin absolute penalty point'!$S$3:$S$20</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'From Pin absolute penalty point'!$T$3:$T$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'From Pin absolute penalty point'!$R$3:$R$20</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'From Pin absolute penalty point'!$S$3:$S$20</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'From Pin absolute penalty point'!$T$3:$T$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'From Pin absolute penalty point'!$R$3:$R$20</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'From Pin absolute penalty point'!$S$3:$S$20</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'From Pin absolute penalty point'!$T$3:$T$20</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'From Pin absolute penalty point'!$R$3:$R$20</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">'From Pin absolute penalty point'!$R$3:$R$20</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">'From Pin absolute penalty point'!$S$3:$S$20</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">'From Pin absolute penalty point'!$T$3:$T$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="163">
   <si>
     <t>Change Data</t>
   </si>
@@ -532,6 +564,9 @@
   </si>
   <si>
     <t>Berechnung der beiden Geraden die die Steigungen m und t für eine alle Target Distanzen festlegt</t>
+  </si>
+  <si>
+    <t>To copy code into TrackmanScore.ts file</t>
   </si>
 </sst>
 </file>
@@ -1903,6 +1938,613 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="13"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$R$3:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$S$3:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>6.1996852662912605E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4478866066881662E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10398110661268557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10894568690095846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11575609756097562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11852439518864206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12443957742849782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.132136678200692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13892125817773252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15509251750829336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1642270861833105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18136042402826855</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.204903758020165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23593117408906886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25752808988764048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29770700636942676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34488188976377948</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39717791411042952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5476-BD49-981B-52C3C747205B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="13"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$R$3:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From Pin absolute penalty point'!$T$3:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.28793185825607215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50075836021049058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49630229419703098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57028753993610226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49741463414634168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60673933472655772</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64274671476423517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67282295271049719</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71112580569163608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78454611131588647</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85068399452804466</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85247349823321539</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98198900091658992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98238866396761138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2268164794007488</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5278980891719751</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7618897637795294</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.954294478527606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5476-BD49-981B-52C3C747205B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="720787200"/>
+        <c:axId val="720788880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="720787200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="720788880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="720788880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="720787200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2224,6 +2866,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2779,7 +3461,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1008713</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>18112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6870492</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>176967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51904937-D85B-D842-906D-641CF1B1D716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3120,8 +4359,8 @@
   <dimension ref="A1:W297"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3217,6 +4456,9 @@
       <c r="T2" s="30" t="s">
         <v>157</v>
       </c>
+      <c r="U2" s="30" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" ht="17" thickBot="1">
       <c r="A3" s="13">
@@ -5172,10 +6414,6 @@
         <f>A32-O32</f>
         <v>0</v>
       </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
     </row>
     <row r="33" spans="1:16" ht="17" thickBot="1">
       <c r="A33" s="13">
@@ -20020,6 +21258,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TrackmanData/TestCenterAndCombineReportResults.xlsx
+++ b/TrackmanData/TestCenterAndCombineReportResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rehn/IdeaProjects/GCQuadCombineTest/TrackmanData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F43A20-6619-414E-AB27-551A75084C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C9649C-1455-3B4D-BA39-8DAE32FB0E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="25080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2003,10 +2003,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$R$3:$R$21</c:f>
+              <c:f>'From Pin absolute penalty point'!$R$3:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -2032,36 +2032,39 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
@@ -2069,10 +2072,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$S$3:$S$21</c:f>
+              <c:f>'From Pin absolute penalty point'!$S$3:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>6.1996852662912605E-2</c:v>
                 </c:pt>
@@ -2098,36 +2101,39 @@
                   <c:v>0.12443957742849782</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.12561544492355939</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.132136678200692</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.13892125817773252</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.15509251750829336</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.1642270861833105</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.18136042402826855</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.204903758020165</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.23593117408906886</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.25752808988764048</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.29770700636942676</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.34488188976377948</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.39717791411042952</c:v>
                 </c:pt>
               </c:numCache>
@@ -2182,10 +2188,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$R$3:$R$21</c:f>
+              <c:f>'From Pin absolute penalty point'!$R$3:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -2211,36 +2217,39 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
@@ -2248,10 +2257,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'From Pin absolute penalty point'!$T$3:$T$21</c:f>
+              <c:f>'From Pin absolute penalty point'!$T$3:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.28793185825607215</c:v>
                 </c:pt>
@@ -2277,36 +2286,39 @@
                   <c:v>0.64274671476423517</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.6972794982359849</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.67282295271049719</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.71112580569163608</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.78454611131588647</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.85068399452804466</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.85247349823321539</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.98198900091658992</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.98238866396761138</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1.2268164794007488</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1.5278980891719751</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1.7618897637795294</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1.954294478527606</c:v>
                 </c:pt>
               </c:numCache>
@@ -4359,8 +4371,8 @@
   <dimension ref="A1:BCQ321"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K175" sqref="K175"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5087,20 +5099,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R11" s="14">
-        <v>55</v>
+      <c r="R11" s="10">
+        <v>52</v>
       </c>
       <c r="S11" s="3">
         <f>VLOOKUP(R11,K$3:M$321,2,FALSE)</f>
-        <v>0.132136678200692</v>
+        <v>0.12561544492355939</v>
       </c>
       <c r="T11" s="3">
         <f>VLOOKUP(R11,K$3:M$321,3,FALSE)</f>
-        <v>0.67282295271049719</v>
+        <v>0.6972794982359849</v>
       </c>
       <c r="U11" s="3" t="str">
         <f>"distanceToSlopeYInterceptMap.set("&amp;R11&amp;", {m: "&amp;S11&amp;", t: "&amp;T11&amp;"});"</f>
-        <v>distanceToSlopeYInterceptMap.set(55, {m: 0.132136678200692, t: 0.672822952710497});</v>
+        <v>distanceToSlopeYInterceptMap.set(52, {m: 0.125615444923559, t: 0.697279498235985});</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="17" thickBot="1">
@@ -5158,20 +5170,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R12" s="12">
-        <v>58</v>
+      <c r="R12" s="14">
+        <v>55</v>
       </c>
       <c r="S12" s="3">
         <f>VLOOKUP(R12,K$3:M$321,2,FALSE)</f>
-        <v>0.13892125817773252</v>
+        <v>0.132136678200692</v>
       </c>
       <c r="T12" s="3">
         <f>VLOOKUP(R12,K$3:M$321,3,FALSE)</f>
-        <v>0.71112580569163608</v>
+        <v>0.67282295271049719</v>
       </c>
       <c r="U12" s="3" t="str">
         <f>"distanceToSlopeYInterceptMap.set("&amp;R12&amp;", {m: "&amp;S12&amp;", t: "&amp;T12&amp;"});"</f>
-        <v>distanceToSlopeYInterceptMap.set(58, {m: 0.138921258177733, t: 0.711125805691636});</v>
+        <v>distanceToSlopeYInterceptMap.set(55, {m: 0.132136678200692, t: 0.672822952710497});</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17" thickBot="1">
@@ -5229,20 +5241,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="10">
-        <v>65</v>
+      <c r="R13" s="12">
+        <v>58</v>
       </c>
       <c r="S13" s="3">
         <f>VLOOKUP(R13,K$3:M$321,2,FALSE)</f>
-        <v>0.15509251750829336</v>
+        <v>0.13892125817773252</v>
       </c>
       <c r="T13" s="3">
         <f>VLOOKUP(R13,K$3:M$321,3,FALSE)</f>
-        <v>0.78454611131588647</v>
+        <v>0.71112580569163608</v>
       </c>
       <c r="U13" s="3" t="str">
         <f>"distanceToSlopeYInterceptMap.set("&amp;R13&amp;", {m: "&amp;S13&amp;", t: "&amp;T13&amp;"});"</f>
-        <v>distanceToSlopeYInterceptMap.set(65, {m: 0.155092517508293, t: 0.784546111315886});</v>
+        <v>distanceToSlopeYInterceptMap.set(58, {m: 0.138921258177733, t: 0.711125805691636});</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="17" thickBot="1">
@@ -5300,21 +5312,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R14" s="16">
-        <f>$K$280</f>
-        <v>68</v>
+      <c r="R14" s="10">
+        <v>65</v>
       </c>
       <c r="S14" s="3">
         <f>VLOOKUP(R14,K$3:M$321,2,FALSE)</f>
-        <v>0.1642270861833105</v>
+        <v>0.15509251750829336</v>
       </c>
       <c r="T14" s="3">
         <f>VLOOKUP(R14,K$3:M$321,3,FALSE)</f>
-        <v>0.85068399452804466</v>
+        <v>0.78454611131588647</v>
       </c>
       <c r="U14" s="3" t="str">
         <f>"distanceToSlopeYInterceptMap.set("&amp;R14&amp;", {m: "&amp;S14&amp;", t: "&amp;T14&amp;"});"</f>
-        <v>distanceToSlopeYInterceptMap.set(68, {m: 0.16422708618331, t: 0.850683994528045});</v>
+        <v>distanceToSlopeYInterceptMap.set(65, {m: 0.155092517508293, t: 0.784546111315886});</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="17" thickBot="1">
@@ -5373,19 +5384,20 @@
         <v>0</v>
       </c>
       <c r="R15" s="16">
-        <v>75</v>
+        <f>$K$280</f>
+        <v>68</v>
       </c>
       <c r="S15" s="3">
         <f>VLOOKUP(R15,K$3:M$321,2,FALSE)</f>
-        <v>0.18136042402826855</v>
+        <v>0.1642270861833105</v>
       </c>
       <c r="T15" s="3">
         <f>VLOOKUP(R15,K$3:M$321,3,FALSE)</f>
-        <v>0.85247349823321539</v>
+        <v>0.85068399452804466</v>
       </c>
       <c r="U15" s="3" t="str">
-        <f t="shared" ref="U15:U21" si="4">"distanceToSlopeYInterceptMap.set("&amp;R15&amp;", {m: "&amp;S15&amp;", t: "&amp;T15&amp;"});"</f>
-        <v>distanceToSlopeYInterceptMap.set(75, {m: 0.181360424028269, t: 0.852473498233215});</v>
+        <f>"distanceToSlopeYInterceptMap.set("&amp;R15&amp;", {m: "&amp;S15&amp;", t: "&amp;T15&amp;"});"</f>
+        <v>distanceToSlopeYInterceptMap.set(68, {m: 0.16422708618331, t: 0.850683994528045});</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17" thickBot="1">
@@ -5443,20 +5455,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="18">
-        <v>85</v>
+      <c r="R16" s="16">
+        <v>75</v>
       </c>
       <c r="S16" s="3">
         <f>VLOOKUP(R16,K$3:M$321,2,FALSE)</f>
-        <v>0.204903758020165</v>
+        <v>0.18136042402826855</v>
       </c>
       <c r="T16" s="3">
         <f>VLOOKUP(R16,K$3:M$321,3,FALSE)</f>
-        <v>0.98198900091658992</v>
+        <v>0.85247349823321539</v>
       </c>
       <c r="U16" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>distanceToSlopeYInterceptMap.set(85, {m: 0.204903758020165, t: 0.98198900091659});</v>
+        <f t="shared" ref="U16:U22" si="4">"distanceToSlopeYInterceptMap.set("&amp;R16&amp;", {m: "&amp;S16&amp;", t: "&amp;T16&amp;"});"</f>
+        <v>distanceToSlopeYInterceptMap.set(75, {m: 0.181360424028269, t: 0.852473498233215});</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="17" thickBot="1">
@@ -5514,20 +5526,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17" s="12">
-        <v>95</v>
+      <c r="R17" s="18">
+        <v>85</v>
       </c>
       <c r="S17" s="3">
         <f>VLOOKUP(R17,K$3:M$321,2,FALSE)</f>
-        <v>0.23593117408906886</v>
+        <v>0.204903758020165</v>
       </c>
       <c r="T17" s="3">
         <f>VLOOKUP(R17,K$3:M$321,3,FALSE)</f>
-        <v>0.98238866396761138</v>
+        <v>0.98198900091658992</v>
       </c>
       <c r="U17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>distanceToSlopeYInterceptMap.set(95, {m: 0.235931174089069, t: 0.982388663967611});</v>
+        <v>distanceToSlopeYInterceptMap.set(85, {m: 0.204903758020165, t: 0.98198900091659});</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="17" thickBot="1">
@@ -5585,20 +5597,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="14">
-        <v>105</v>
+      <c r="R18" s="12">
+        <v>95</v>
       </c>
       <c r="S18" s="3">
         <f>VLOOKUP(R18,K$3:M$321,2,FALSE)</f>
-        <v>0.25752808988764048</v>
+        <v>0.23593117408906886</v>
       </c>
       <c r="T18" s="3">
         <f>VLOOKUP(R18,K$3:M$321,3,FALSE)</f>
-        <v>1.2268164794007488</v>
+        <v>0.98238866396761138</v>
       </c>
       <c r="U18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>distanceToSlopeYInterceptMap.set(105, {m: 0.25752808988764, t: 1.22681647940075});</v>
+        <v>distanceToSlopeYInterceptMap.set(95, {m: 0.235931174089069, t: 0.982388663967611});</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="17" thickBot="1">
@@ -5656,20 +5668,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="10">
-        <v>125</v>
+      <c r="R19" s="14">
+        <v>105</v>
       </c>
       <c r="S19" s="3">
         <f>VLOOKUP(R19,K$3:M$321,2,FALSE)</f>
-        <v>0.29770700636942676</v>
+        <v>0.25752808988764048</v>
       </c>
       <c r="T19" s="3">
         <f>VLOOKUP(R19,K$3:M$321,3,FALSE)</f>
-        <v>1.5278980891719751</v>
+        <v>1.2268164794007488</v>
       </c>
       <c r="U19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>distanceToSlopeYInterceptMap.set(125, {m: 0.297707006369427, t: 1.52789808917198});</v>
+        <v>distanceToSlopeYInterceptMap.set(105, {m: 0.25752808988764, t: 1.22681647940075});</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="17" thickBot="1">
@@ -5727,20 +5739,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="16">
-        <v>145</v>
+      <c r="R20" s="10">
+        <v>125</v>
       </c>
       <c r="S20" s="3">
         <f>VLOOKUP(R20,K$3:M$321,2,FALSE)</f>
-        <v>0.34488188976377948</v>
+        <v>0.29770700636942676</v>
       </c>
       <c r="T20" s="3">
         <f>VLOOKUP(R20,K$3:M$321,3,FALSE)</f>
-        <v>1.7618897637795294</v>
+        <v>1.5278980891719751</v>
       </c>
       <c r="U20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>distanceToSlopeYInterceptMap.set(145, {m: 0.344881889763779, t: 1.76188976377953});</v>
+        <v>distanceToSlopeYInterceptMap.set(125, {m: 0.297707006369427, t: 1.52789808917198});</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="17" thickBot="1">
@@ -5798,20 +5810,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R21" s="18">
-        <v>165</v>
+      <c r="R21" s="16">
+        <v>145</v>
       </c>
       <c r="S21" s="3">
         <f>VLOOKUP(R21,K$3:M$321,2,FALSE)</f>
-        <v>0.39717791411042952</v>
+        <v>0.34488188976377948</v>
       </c>
       <c r="T21" s="3">
         <f>VLOOKUP(R21,K$3:M$321,3,FALSE)</f>
-        <v>1.954294478527606</v>
+        <v>1.7618897637795294</v>
       </c>
       <c r="U21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>distanceToSlopeYInterceptMap.set(165, {m: 0.39717791411043, t: 1.95429447852761});</v>
+        <v>distanceToSlopeYInterceptMap.set(145, {m: 0.344881889763779, t: 1.76188976377953});</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="17" thickBot="1">
@@ -5868,6 +5880,21 @@
       <c r="P22" s="3">
         <f>A22-O22</f>
         <v>0</v>
+      </c>
+      <c r="R22" s="18">
+        <v>165</v>
+      </c>
+      <c r="S22" s="3">
+        <f>VLOOKUP(R22,K$3:M$321,2,FALSE)</f>
+        <v>0.39717791411042952</v>
+      </c>
+      <c r="T22" s="3">
+        <f>VLOOKUP(R22,K$3:M$321,3,FALSE)</f>
+        <v>1.954294478527606</v>
+      </c>
+      <c r="U22" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>distanceToSlopeYInterceptMap.set(165, {m: 0.39717791411043, t: 1.95429447852761});</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="17" thickBot="1">
@@ -9485,6 +9512,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
     </row>
     <row r="68" spans="1:1447" s="118" customFormat="1" ht="17" thickBot="1">
       <c r="A68" s="21">
@@ -18915,6 +18946,10 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="R82" s="118"/>
+      <c r="S82" s="118"/>
+      <c r="T82" s="118"/>
+      <c r="U82" s="118"/>
     </row>
     <row r="83" spans="1:21" ht="17" thickBot="1">
       <c r="A83" s="15">
@@ -24995,10 +25030,10 @@
         <v>0</v>
       </c>
       <c r="Q165" s="118"/>
-      <c r="R165" s="118"/>
-      <c r="S165" s="118"/>
-      <c r="T165" s="118"/>
-      <c r="U165" s="118"/>
+      <c r="R165"/>
+      <c r="S165"/>
+      <c r="T165"/>
+      <c r="U165"/>
       <c r="V165" s="118"/>
       <c r="W165" s="118"/>
       <c r="X165" s="118"/>
@@ -35799,6 +35834,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="R179" s="118"/>
+      <c r="S179" s="118"/>
+      <c r="T179" s="118"/>
+      <c r="U179" s="118"/>
     </row>
     <row r="180" spans="1:1447" ht="17" thickBot="1">
       <c r="A180" s="13">
@@ -42663,10 +42702,10 @@
         <v>0</v>
       </c>
       <c r="Q276" s="118"/>
-      <c r="R276" s="118"/>
-      <c r="S276" s="118"/>
-      <c r="T276" s="118"/>
-      <c r="U276" s="118"/>
+      <c r="R276"/>
+      <c r="S276"/>
+      <c r="T276"/>
+      <c r="U276"/>
       <c r="V276" s="118"/>
       <c r="W276" s="118"/>
       <c r="X276" s="118"/>
@@ -50157,6 +50196,10 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
+      <c r="R282" s="118"/>
+      <c r="S282" s="118"/>
+      <c r="T282" s="118"/>
+      <c r="U282" s="118"/>
     </row>
     <row r="283" spans="1:1447" ht="17" thickBot="1">
       <c r="A283" s="15">
